--- a/config_Keith.xlsx
+++ b/config_Keith.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimbogyeong/Documents/GitHub/ETL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu-my.sharepoint.com/personal/keithtan_2022_accountancy_smu_edu_sg/Documents/Desktop/smu/subject/y4s2/capstone/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B9805-7A9B-204D-912C-31490BC44652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8A2B9805-7A9B-204D-912C-31490BC44652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9C2365-A982-42C1-84B1-AED24BE9790F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paths" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,13 @@
     <t>tenant_turnover</t>
   </si>
   <si>
-    <t>/Users/kimbogyeong/Desktop/Capstone/schemas.xlsx</t>
-  </si>
-  <si>
-    <t>/Users/kimbogyeong/Desktop/Capstone/raw data</t>
-  </si>
-  <si>
-    <t>/Users/kimbogyeong/Desktop/Capstone/cleaned data</t>
+    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\cleaned data</t>
+  </si>
+  <si>
+    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\raw data\raw data</t>
+  </si>
+  <si>
+    <t>C:\Users\user\OneDrive - Singapore Management University\Desktop\smu\subject\y4s2\capstone\schemas.xlsx</t>
   </si>
 </sst>
 </file>
@@ -391,15 +391,15 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -407,7 +407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -415,20 +415,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -444,14 +444,14 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -473,7 +473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -484,7 +484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
